--- a/Configs/Scene.xlsx
+++ b/Configs/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>sn</t>
   </si>
@@ -41,12 +41,24 @@
     <t>mainImg</t>
   </si>
   <si>
+    <t>bNoBGM</t>
+  </si>
+  <si>
+    <t>bForceBGM</t>
+  </si>
+  <si>
+    <t>sceneBGM</t>
+  </si>
+  <si>
     <t>levelLimit</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -62,6 +74,15 @@
     <t>图片</t>
   </si>
   <si>
+    <t>是否停止BGM</t>
+  </si>
+  <si>
+    <t>是否强制重播</t>
+  </si>
+  <si>
+    <t>场景背景音乐</t>
+  </si>
+  <si>
     <t>等级限制</t>
   </si>
   <si>
@@ -74,6 +95,9 @@
     <t>AssetPath/GameRes/Scene/MainScene.unity</t>
   </si>
   <si>
+    <t>Music_01.mp3</t>
+  </si>
+  <si>
     <t>FirstStage</t>
   </si>
   <si>
@@ -84,6 +108,9 @@
   </si>
   <si>
     <t>main.png</t>
+  </si>
+  <si>
+    <t>Music_03.mp3</t>
   </si>
 </sst>
 </file>
@@ -1014,21 +1041,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="41.75" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1044,69 +1074,114 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="E4" t="b">
         <v>0</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
     </row>

--- a/Configs/Scene.xlsx
+++ b/Configs/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SceneDataCfg" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>sn</t>
   </si>
@@ -53,6 +53,15 @@
     <t>levelLimit</t>
   </si>
   <si>
+    <t>bLoading</t>
+  </si>
+  <si>
+    <t>loadingFactor</t>
+  </si>
+  <si>
+    <t>loadingAtlas</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -86,6 +95,15 @@
     <t>等级限制</t>
   </si>
   <si>
+    <t>是否刷loading图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loading时需要等待的项目 1 load Scene 2 load Sprite </t>
+  </si>
+  <si>
+    <t>loading时需要的图集</t>
+  </si>
+  <si>
     <t>MainScene</t>
   </si>
   <si>
@@ -111,6 +129,81 @@
   </si>
   <si>
     <t>Music_03.mp3</t>
+  </si>
+  <si>
+    <t>ImageHeadIcon</t>
+  </si>
+  <si>
+    <t>StageScene01</t>
+  </si>
+  <si>
+    <t>关卡1</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Scene/StageScene01.unity</t>
+  </si>
+  <si>
+    <t>Music_04.mp3</t>
+  </si>
+  <si>
+    <t>StageScene02</t>
+  </si>
+  <si>
+    <t>关卡2</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Scene/StageScene02.unity</t>
+  </si>
+  <si>
+    <t>Music_05.mp3</t>
+  </si>
+  <si>
+    <t>StageScene03</t>
+  </si>
+  <si>
+    <t>关卡3</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Scene/StageScene03.unity</t>
+  </si>
+  <si>
+    <t>Music_06.mp3</t>
+  </si>
+  <si>
+    <t>StageScene04</t>
+  </si>
+  <si>
+    <t>关卡4</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Scene/StageScene04.unity</t>
+  </si>
+  <si>
+    <t>Music_07.mp3</t>
+  </si>
+  <si>
+    <t>StageScene05</t>
+  </si>
+  <si>
+    <t>关卡5</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Scene/StageScene05.unity</t>
+  </si>
+  <si>
+    <t>Music_08.mp3</t>
+  </si>
+  <si>
+    <t>StageScene06</t>
+  </si>
+  <si>
+    <t>关卡6</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Scene/StageScene06.unity</t>
+  </si>
+  <si>
+    <t>Music_09.mp3</t>
   </si>
 </sst>
 </file>
@@ -1041,24 +1134,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="41.75" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="11" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,68 +1178,95 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1153,36 +1275,210 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>3</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Scene.xlsx
+++ b/Configs/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>sn</t>
   </si>
@@ -62,6 +62,9 @@
     <t>loadingAtlas</t>
   </si>
   <si>
+    <t>defaultUIList</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
     <t>sceneName</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
     <t>loading时需要的图集</t>
   </si>
   <si>
+    <t>默认需要打开的ui</t>
+  </si>
+  <si>
     <t>MainScene</t>
   </si>
   <si>
@@ -114,6 +123,9 @@
   </si>
   <si>
     <t>Music_01.mp3</t>
+  </si>
+  <si>
+    <t>UI-MainWindow</t>
   </si>
   <si>
     <t>FirstStage</t>
@@ -1134,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1150,10 +1162,12 @@
     <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="11" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,86 +1201,95 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
+      <c r="L2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1275,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1285,20 +1308,23 @@
       </c>
       <c r="J4">
         <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1307,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1319,18 +1345,18 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1339,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1350,13 +1376,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1365,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1376,13 +1402,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1391,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1400,18 +1426,18 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1420,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1431,13 +1457,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1446,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1457,13 +1483,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1472,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>

--- a/Configs/Scene.xlsx
+++ b/Configs/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>sn</t>
   </si>
@@ -125,7 +125,7 @@
     <t>Music_01.mp3</t>
   </si>
   <si>
-    <t>UI-MainWindow</t>
+    <t>UI-MainPanel</t>
   </si>
   <si>
     <t>FirstStage</t>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>ImageHeadIcon</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/UI-LevelSelect.prefab</t>
   </si>
   <si>
     <t>StageScene01</t>
@@ -1146,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1348,41 +1351,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1391,24 +1373,24 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1417,27 +1399,24 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1446,24 +1425,27 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1472,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1483,13 +1465,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1498,12 +1480,38 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>

--- a/Configs/Scene.xlsx
+++ b/Configs/Scene.xlsx
@@ -125,6 +125,9 @@
     <t>Music_01.mp3</t>
   </si>
   <si>
+    <t>ImageChara,ImageCommonUI,ImageScreen01</t>
+  </si>
+  <si>
     <t>UI-MainPanel</t>
   </si>
   <si>
@@ -144,9 +147,6 @@
   </si>
   <si>
     <t>ImageHeadIcon</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/GameUI/UI-LevelSelect.prefab</t>
   </si>
   <si>
     <t>StageScene01</t>
@@ -1149,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1312,22 +1312,25 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1336,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1348,23 +1351,44 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1373,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1382,15 +1406,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1399,24 +1423,27 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1425,27 +1452,24 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1454,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1465,13 +1489,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1480,38 +1504,12 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12">
         <v>1</v>
       </c>
     </row>

--- a/Configs/Scene.xlsx
+++ b/Configs/Scene.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPrj\LumiUnityPrj01\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6A3056-7D8A-4FE0-9D26-B1C14CEA8A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneDataCfg" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>sn</t>
   </si>
@@ -219,19 +225,24 @@
   </si>
   <si>
     <t>Music_09.mp3</t>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-LevelBackPanel</t>
+  </si>
+  <si>
+    <t>UI-LevelBackPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,345 +251,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -586,314 +282,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1143,19 +556,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
@@ -1167,10 +580,10 @@
     <col min="9" max="9" width="10.875" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="11" width="18.125" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1239,14 +652,14 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>12</v>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1284,7 +697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1319,7 +732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1354,7 +767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1379,8 +792,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1405,8 +821,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1434,8 +853,11 @@
       <c r="K8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1460,8 +882,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1486,8 +911,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1512,10 +940,13 @@
       <c r="J11">
         <v>1</v>
       </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>